--- a/mysite/Codebook.xlsx
+++ b/mysite/Codebook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="0" windowWidth="27780" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="3945" yWindow="0" windowWidth="27780" windowHeight="18000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Occupation" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Teaching!$A$1:$A$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">UnderwayResearch!$A$1:$F$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">UnderwayResearch!$A$1:$F$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="213">
   <si>
     <t>Dates</t>
   </si>
@@ -361,21 +361,12 @@
     <t>The Unaccounted Consequences of Low Emission Zones: Evidence from Madrid Central</t>
   </si>
   <si>
-    <t>Working Paper</t>
-  </si>
-  <si>
-    <t>Adrian Santoja and Nicole Wägner</t>
-  </si>
-  <si>
     <t>Air Pollution and Court Decisions: Evidence from Ten Million Penal Cases in India</t>
   </si>
   <si>
     <t>The Agent Base Model of Technology Adoption ABM-REN</t>
   </si>
   <si>
-    <t>Severin Reissl and Johanness Emmerling</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -436,12 +427,6 @@
     <t>Institute</t>
   </si>
   <si>
-    <t>European Institute on Economics and the Environment</t>
-  </si>
-  <si>
-    <t>European Institute on Economics and the Environment, German_x000D_ Institute of Economic Research, and Leibniz Institute for Economic Research</t>
-  </si>
-  <si>
     <t>econometrics</t>
   </si>
   <si>
@@ -454,12 +439,6 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>Winter 2022</t>
-  </si>
-  <si>
-    <t>Spring 2023</t>
-  </si>
-  <si>
     <t>Air Quality and School Abenteeism: Evidence from New York City</t>
   </si>
   <si>
@@ -473,9 +452,6 @@
   </si>
   <si>
     <t>Fall 2023</t>
-  </si>
-  <si>
-    <t>U.S. Net-Zero Technology Pathways of Carbon Management</t>
   </si>
   <si>
     <t>An Econometric Analysis of Environmental Phenomena</t>
@@ -684,15 +660,6 @@
     <t>Comparing Net Zero pathways across the Atlantic:  A model inter-comparison exercise between the Energy Modeling Forum 37 and the European Climate and Energy Modeling Forum</t>
   </si>
   <si>
-    <t>The Equity Impacts of Net Zero scenarios un the United States</t>
-  </si>
-  <si>
-    <t>&lt;span&gt;&amp;#8226;&lt;/span&gt; Luis Sarmiento &lt;br&gt;
-&lt;span&gt;&amp;#8226;&lt;/span&gt; Jae Edmons&lt;br&gt;
-&lt;span&gt;&amp;#8226;&lt;/span&gt;John Bistline&lt;br&gt;
-&lt;span&gt;&amp;#8226;&lt;/span&gt;….. and others&lt;br&gt;</t>
-  </si>
-  <si>
     <t>&lt;span&gt;&amp;#8226;&lt;/span&gt; John Bistline  &lt;br&gt;
 &lt;span&gt;&amp;#8226;&lt;/span&gt; Chikara Onda&lt;br&gt;
 &lt;span&gt;&amp;#8226;&lt;/span&gt; Luis Sarmiento&lt;br&gt;
@@ -703,12 +670,6 @@
 &lt;span&gt;&amp;#8226;&lt;/span&gt; Johaness Emmerling&lt;br&gt;
 &lt;span&gt;&amp;#8226;&lt;/span&gt; Robert Pizsiker&lt;br&gt;
 &lt;span&gt;&amp;#8226;&lt;/span&gt;….. and others&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>The Effect of Air purifiers on children' health, attitudes, and performance: Evidence from an RCT in Milan</t>
-  </si>
-  <si>
-    <t>Spring 2024</t>
   </si>
   <si>
     <t>&lt;span&gt;&amp;#8226;&lt;/span&gt; Jacopo Bonan &lt;br&gt;
@@ -740,9 +701,6 @@
 &lt;span&gt;&amp;#8226;&lt;/span&gt; Research on the effects of air pollution and air pollution control policies on productivity, health, and wellbeing.</t>
   </si>
   <si>
-    <t>Summer 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 &lt;span&gt;&amp;#8226;&lt;/span&gt; RFF-CMCC &lt;br&gt; 
 </t>
@@ -788,6 +746,34 @@
     <t>&lt;span&gt;&amp;#8226;&lt;/span&gt; RFF-CMCC &lt;br&gt; 
 &lt;span&gt;&amp;#8226;&lt;/span&gt; Norwegian School of Economics &lt;br&gt;
 &lt;span&gt;&amp;#8226;&lt;/span&gt; German Ministry for Economic Affairs</t>
+  </si>
+  <si>
+    <t>Energy and Climate Change</t>
+  </si>
+  <si>
+    <t>Equity Implications of Net-Zero Emissions: A Multi-Model Analysis of Distributional Effects Across Income Classes</t>
+  </si>
+  <si>
+    <t>Journal of Political Economy: Microeconomics</t>
+  </si>
+  <si>
+    <t>Indoor air quality and student welfare: The Effect of Indoor Air Purifiers in Schools</t>
+  </si>
+  <si>
+    <t>Summer 2023</t>
+  </si>
+  <si>
+    <t>Winter 2023</t>
+  </si>
+  <si>
+    <t>Carbon Management Technology Pathways for Reaching a US Economy-Wide Net-Zero Emissions Goal</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;&amp;#8226;&lt;/span&gt; Mathew Binsted&lt;br&gt;
+&lt;span&gt;&amp;#8226;&lt;/span&gt; Ellie Lochner &lt;br&gt;
+&lt;span&gt;&amp;#8226;&lt;/span&gt; Jae Edmonds&lt;br&gt;
+&lt;span&gt;&amp;#8226;&lt;/span&gt; Luis Sarmiento&lt;br&gt;
+&lt;span&gt;&amp;#8226;&lt;/span&gt;….. and others&lt;br&gt;</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -1173,16 +1159,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -1193,16 +1179,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1213,16 +1199,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1236,13 +1222,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1256,13 +1242,13 @@
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1310,13 +1296,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>
@@ -1327,13 +1313,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>7</v>
@@ -1605,16 +1591,16 @@
         <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1625,16 +1611,16 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
@@ -1645,16 +1631,16 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>7</v>
@@ -1665,16 +1651,16 @@
         <v>2019</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>12</v>
@@ -1685,16 +1671,16 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>12</v>
@@ -1714,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,19 +1728,19 @@
         <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -1762,25 +1748,25 @@
         <v>2023</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
         <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -1788,129 +1774,129 @@
         <v>2023</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2023</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>166</v>
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -1918,91 +1904,118 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1"/>
-    <hyperlink ref="G10" r:id="rId2"/>
-    <hyperlink ref="G8" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
-    <hyperlink ref="G5" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G10" r:id="rId1"/>
+    <hyperlink ref="G11" r:id="rId2"/>
+    <hyperlink ref="G9" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
     <hyperlink ref="G3" r:id="rId7"/>
-    <hyperlink ref="B4" r:id="rId8" display="https://www.rff.org/publications/working-papers/effect-of-changing-marginal-cost-to-physical-order-dispatch-in-the-power-sector/"/>
-    <hyperlink ref="G4" r:id="rId9"/>
+    <hyperlink ref="B5" r:id="rId8" display="https://www.rff.org/publications/working-papers/effect-of-changing-marginal-cost-to-physical-order-dispatch-in-the-power-sector/"/>
+    <hyperlink ref="G5" r:id="rId9"/>
     <hyperlink ref="G2" r:id="rId10"/>
+    <hyperlink ref="G4" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2010,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,16 +2053,16 @@
         <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2060,22 +2073,22 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
         <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -2086,68 +2099,100 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
         <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>208</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2158,10 +2203,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,160 +2226,80 @@
         <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2021</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2020</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2020</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F7">
+  <autoFilter ref="A1:F4">
     <sortState ref="A2:F5">
       <sortCondition descending="1" ref="A1:A5"/>
     </sortState>
@@ -2378,7 +2343,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2392,13 +2357,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2418,7 +2383,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2438,7 +2403,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
